--- a/Assigment1/analysis/bool_analysis.xlsx
+++ b/Assigment1/analysis/bool_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fireblast\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fireblast\Usi\5th semester\EE\Experimentation-Evaluation\Assigment1\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAD5B9-F5FF-4068-8F6F-8845A8E5D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5AF19-870D-4863-A845-AA71F0B1DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,13 +126,5523 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="786">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF93"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8F8F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8F8F"/>
+      <color rgb="FFFFFF93"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33455109-7434-42BA-A643-619FA916E59B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,16 +5950,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2610300</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3213500</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1690900</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2845600</v>
       </c>
     </row>
@@ -457,16 +5967,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2634775</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3238075</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1704450</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2866975</v>
       </c>
     </row>
@@ -474,16 +5984,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2661700</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3262000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1717350</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2889800</v>
       </c>
     </row>
@@ -491,16 +6001,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2745925</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3330450</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1733625</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2955325</v>
       </c>
     </row>
@@ -508,16 +6018,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4401700</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3721500</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>2072200</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3965000</v>
       </c>
     </row>
@@ -525,16 +6035,16 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2729645</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3300867</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1731361</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2950208.01</v>
       </c>
     </row>
@@ -542,20 +6052,179 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>220280.986022467</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>99204.460895748838</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>53153.104368798668</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>165157.62165200661</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="407" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="406" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="405" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="404" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="403" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="402" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="401" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="400" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="399" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="398" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="397" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="396" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="395" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="394" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E8">
+    <cfRule type="top10" dxfId="393" priority="58" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="392" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="391" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="390" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="389" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="388" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="387" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="386" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="385" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="384" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="383" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="382" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="381" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="380" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="379" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="378" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="377" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="376" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="375" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="374" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="373" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="372" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="371" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="370" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="369" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="368" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="367" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="366" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="365" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="364" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="363" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="362" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="361" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="360" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="359" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="358" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="357" priority="3" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -565,7 +6234,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,16 +6264,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4900</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3370800</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2162700</v>
       </c>
     </row>
@@ -612,16 +6281,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5400</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>4975</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3406725</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2184475</v>
       </c>
     </row>
@@ -629,16 +6298,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5600</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3433900</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2204350</v>
       </c>
     </row>
@@ -646,16 +6315,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5800</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5100</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3550875</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2259350</v>
       </c>
     </row>
@@ -663,16 +6332,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>31100</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>5800</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4131300</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3552300</v>
       </c>
     </row>
@@ -680,16 +6349,16 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5904</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5045</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3509496.01</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2275524</v>
       </c>
     </row>
@@ -697,20 +6366,179 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2562.6659098791179</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>136.60752600649849</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>159799.6156178292</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>202116.2217511239</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="305" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="304" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="303" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="302" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="301" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="300" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="299" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="298" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="297" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="296" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="295" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="294" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="293" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="292" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E8">
+    <cfRule type="top10" dxfId="291" priority="58" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="290" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="289" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="288" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="287" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="286" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="285" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="284" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="283" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="282" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="281" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="280" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="279" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="278" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="277" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="276" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="275" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="274" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="273" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="272" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="271" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="270" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="269" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="268" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="267" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="266" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="265" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="264" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="263" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="262" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="261" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="260" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="259" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="258" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="257" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="256" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="255" priority="3" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -720,7 +6548,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,16 +6578,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5300</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4800</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3360600</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2163100</v>
       </c>
     </row>
@@ -767,16 +6595,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5400</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>4975</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3391150</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2178075</v>
       </c>
     </row>
@@ -784,16 +6612,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5600</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3421200</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2192250</v>
       </c>
     </row>
@@ -801,16 +6629,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5800</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5100</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3481150</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2223300</v>
       </c>
     </row>
@@ -818,16 +6646,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>29700</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>15400</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4963100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2557900</v>
       </c>
     </row>
@@ -835,16 +6663,16 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6077</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5185</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3480994.01</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2218274</v>
       </c>
     </row>
@@ -852,20 +6680,179 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2908.6723341543211</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1151.930746375165</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>192928.33653067879</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>70408.138619327117</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="502" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="503" priority="57" rank="1"/>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="607" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="608" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="605" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="606" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="604" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="603" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="602" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="601" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="600" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="599" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="598" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="597" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E8">
+    <cfRule type="top10" dxfId="473" priority="58" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="596" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="595" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="594" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="593" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="592" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="591" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="590" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="589" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="588" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="587" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="586" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="585" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="495" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="494" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="493" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="492" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="487" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="486" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="485" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="484" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="479" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="478" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="477" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="476" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="470" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="469" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="468" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="467" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="466" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="465" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="464" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="463" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="462" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="461" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="460" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="459" priority="3" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -875,16 +6862,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,16 +6892,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>286545401</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>354424309</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>170943098</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>294936500</v>
       </c>
     </row>
@@ -922,16 +6909,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>288952599.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>358075723.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>172831201.25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>297155609</v>
       </c>
     </row>
@@ -939,16 +6926,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>291277102</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>360008998.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>173552850</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>298901548.5</v>
       </c>
     </row>
@@ -956,16 +6943,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>294343949</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>363153200.25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>175302775.75</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>302837054.75</v>
       </c>
     </row>
@@ -973,16 +6960,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>321725404</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>407870307</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>189177400</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>327962503</v>
       </c>
     </row>
@@ -990,16 +6977,16 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>292744877.50999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>362051335.45999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>174763763.21000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>301009971.41000003</v>
       </c>
     </row>
@@ -1007,20 +6994,179 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>5751397.8519228399</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>7252437.6582180057</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3302350.9112990489</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>6138946.7906737439</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="203" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="202" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="201" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="200" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="199" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="198" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="197" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="196" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="195" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="194" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="193" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="192" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="191" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="190" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E8">
+    <cfRule type="top10" dxfId="189" priority="58" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="188" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="187" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="186" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="184" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="183" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="182" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="180" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="178" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="176" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="174" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="172" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="171" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="170" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="169" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="168" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="166" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="165" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="164" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="163" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="162" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="160" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="158" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="156" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="154" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="153" priority="3" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1030,16 +7176,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,16 +7206,16 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>47600</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>48600</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>346004989</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>221815600</v>
       </c>
     </row>
@@ -1077,16 +7223,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>47800</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>48700</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>350191375.75</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>224643399</v>
       </c>
     </row>
@@ -1094,16 +7240,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>47900</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>48800</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>352474001.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>226296900.5</v>
       </c>
     </row>
@@ -1111,16 +7257,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>48200</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>49000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>357105551</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>229247500.75</v>
       </c>
     </row>
@@ -1128,16 +7274,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>78100</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>110500</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>394554301</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>268939301</v>
       </c>
     </row>
@@ -1145,16 +7291,16 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>48984</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>50448</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>355011346.81</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>228229474.87</v>
       </c>
     </row>
@@ -1162,20 +7308,179 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>4390.755209884891</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>7226.8785611336889</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>8276809.2589363176</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>6478174.5824741749</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="152" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="150" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="148" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="146" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="144" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="142" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="140" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E8">
+    <cfRule type="top10" dxfId="138" priority="58" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="137" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="135" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="133" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="131" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="130" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="129" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="128" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="127" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="125" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="124" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="123" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="122" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="121" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="120" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="119" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="118" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="117" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="116" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="115" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="114" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="113" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="112" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="111" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="109" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="108" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="107" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="105" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="104" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="103" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="3" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1185,16 +7490,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,6 +7636,165 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="50" priority="56" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="48" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="55" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="46" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="44" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="42" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="40" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="38" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E8">
+    <cfRule type="top10" dxfId="36" priority="58" rank="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="35" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="33" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="31" priority="38" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="29" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="27" priority="34" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E2">
+    <cfRule type="top10" dxfId="25" priority="32" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="23" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="top10" dxfId="21" priority="27" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="19" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="top10" dxfId="17" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="15" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:E5">
+    <cfRule type="top10" dxfId="13" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="11" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:E6">
+    <cfRule type="top10" dxfId="9" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="7" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="top10" dxfId="5" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF8F8F"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:E8">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="3" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>